--- a/test/srv/calculator/lib/MortgageFormula/MortgageFormulaCases.xlsx
+++ b/test/srv/calculator/lib/MortgageFormula/MortgageFormulaCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikhail_ponomarev/projects/mortgagecalc/test/srv/calculator/lib/MortgageFormula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED281F5-6CAF-3E44-AADB-DF8A226A9869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0F6576-DA76-D942-9DEF-3FB2FF21A2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="500" windowWidth="28040" windowHeight="17360" xr2:uid="{8BD75CC6-86F3-7D46-A306-5BED73A8C80D}"/>
+    <workbookView xWindow="6600" yWindow="500" windowWidth="28040" windowHeight="17360" activeTab="3" xr2:uid="{8BD75CC6-86F3-7D46-A306-5BED73A8C80D}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>pv</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Total body (should be equal to anount of loan)</t>
+  </si>
+  <si>
+    <t>Total interest %</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30B7F26-C839-8648-B988-6FCFF1125612}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -521,15 +524,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50814A5A-6751-6C4C-A1E6-24724A8777E5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
-        <v>-537.69000000000005</v>
+        <f>PMT((input!B2+input!B3)/12/100,input!B5,input!B1)</f>
+        <v>-537.68973131221821</v>
       </c>
     </row>
   </sheetData>
@@ -541,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A496B6A-C791-9748-BCA8-033E02A33D69}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2727,15 +2729,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFB2459-C1FB-BF47-82B6-2EA1AB7E8AA3}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2765,6 +2768,15 @@
         <v>-49999.999999999913</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>B2/B1*100</f>
+        <v>22.50797394813511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/srv/calculator/lib/MortgageFormula/MortgageFormulaCases.xlsx
+++ b/test/srv/calculator/lib/MortgageFormula/MortgageFormulaCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikhail_ponomarev/projects/mortgagecalc/test/srv/calculator/lib/MortgageFormula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0F6576-DA76-D942-9DEF-3FB2FF21A2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7561394-F264-8042-A2FB-FC8FEDD37C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="500" windowWidth="28040" windowHeight="17360" activeTab="3" xr2:uid="{8BD75CC6-86F3-7D46-A306-5BED73A8C80D}"/>
+    <workbookView xWindow="6600" yWindow="500" windowWidth="28040" windowHeight="17360" activeTab="2" xr2:uid="{8BD75CC6-86F3-7D46-A306-5BED73A8C80D}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A496B6A-C791-9748-BCA8-033E02A33D69}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2731,7 +2731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFB2459-C1FB-BF47-82B6-2EA1AB7E8AA3}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
